--- a/Documentation/Gaze_Emmission_Probabilities.xlsx
+++ b/Documentation/Gaze_Emmission_Probabilities.xlsx
@@ -19,63 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>-0.33656828</t>
-  </si>
-  <si>
-    <t>-1.68718437</t>
-  </si>
-  <si>
-    <t>-2.29518168</t>
-  </si>
-  <si>
-    <t>-0.46510543</t>
-  </si>
-  <si>
-    <t>-1.24188864</t>
-  </si>
-  <si>
-    <t>-2.48779572</t>
-  </si>
-  <si>
-    <t>-0.69007864</t>
-  </si>
-  <si>
-    <t>-0.93176190</t>
-  </si>
-  <si>
-    <t>-2.25757146</t>
-  </si>
-  <si>
-    <t>-0.29008319</t>
-  </si>
-  <si>
-    <t>-1.61886735</t>
-  </si>
-  <si>
-    <t>-2.92479487</t>
-  </si>
-  <si>
-    <t>-0.35975471</t>
-  </si>
-  <si>
-    <t>-1.40969150</t>
-  </si>
-  <si>
-    <t>-2.84845250</t>
-  </si>
-  <si>
-    <t>-0.98459316</t>
-  </si>
-  <si>
-    <t>-1.36510533</t>
-  </si>
-  <si>
-    <t>-0.99140489</t>
-  </si>
-  <si>
-    <t>x_y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>-0.47539845</t>
+  </si>
+  <si>
+    <t>-1.53075087</t>
+  </si>
+  <si>
+    <t>-1.82022346</t>
+  </si>
+  <si>
+    <t>-0.51042419</t>
+  </si>
+  <si>
+    <t>-1.17873170</t>
+  </si>
+  <si>
+    <t>-2.38498473</t>
+  </si>
+  <si>
+    <t>-0.71985695</t>
+  </si>
+  <si>
+    <t>-0.90357292</t>
+  </si>
+  <si>
+    <t>-2.22508255</t>
+  </si>
+  <si>
+    <t>-0.29756367</t>
+  </si>
+  <si>
+    <t>-1.60167980</t>
+  </si>
+  <si>
+    <t>-2.88567604</t>
+  </si>
+  <si>
+    <t>-0.36204432</t>
+  </si>
+  <si>
+    <t>-1.40492718</t>
+  </si>
+  <si>
+    <t>-2.84106350</t>
+  </si>
+  <si>
+    <t>-1.01026657</t>
+  </si>
+  <si>
+    <t>-1.33310886</t>
+  </si>
+  <si>
+    <t>-0.98826541</t>
   </si>
   <si>
     <t>0_unstated, Fixation</t>
@@ -188,11 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,162 +498,159 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -663,5 +658,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>